--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Adam23</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,49 +540,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.24309252336695</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H2">
-        <v>7.24309252336695</v>
+        <v>0.010366</v>
       </c>
       <c r="I2">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533279</v>
       </c>
       <c r="J2">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533278</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>14.1677510963009</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="N2">
-        <v>14.1677510963009</v>
+        <v>0.102857</v>
       </c>
       <c r="O2">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="P2">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="Q2">
-        <v>102.618332038541</v>
+        <v>0.0001184684068888889</v>
       </c>
       <c r="R2">
-        <v>102.618332038541</v>
+        <v>0.001066215662</v>
       </c>
       <c r="S2">
-        <v>0.7454963787493492</v>
+        <v>8.063209092102856E-07</v>
       </c>
       <c r="T2">
-        <v>0.7454963787493492</v>
+        <v>8.063209092102856E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.24309252336695</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H3">
-        <v>7.24309252336695</v>
+        <v>0.010366</v>
       </c>
       <c r="I3">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533279</v>
       </c>
       <c r="J3">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533278</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.492431121557833</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="N3">
-        <v>0.492431121557833</v>
+        <v>43.730186</v>
       </c>
       <c r="O3">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="P3">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="Q3">
-        <v>3.566724174828741</v>
+        <v>0.05036745645288889</v>
       </c>
       <c r="R3">
-        <v>3.566724174828741</v>
+        <v>0.4533071080760001</v>
       </c>
       <c r="S3">
-        <v>0.02591135427278177</v>
+        <v>0.000342811508555129</v>
       </c>
       <c r="T3">
-        <v>0.02591135427278177</v>
+        <v>0.000342811508555129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.24309252336695</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H4">
-        <v>7.24309252336695</v>
+        <v>0.010366</v>
       </c>
       <c r="I4">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533279</v>
       </c>
       <c r="J4">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533278</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0534272204775867</v>
+        <v>0.005527333333333333</v>
       </c>
       <c r="N4">
-        <v>0.0534272204775867</v>
+        <v>0.016582</v>
       </c>
       <c r="O4">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834145</v>
       </c>
       <c r="P4">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834146</v>
       </c>
       <c r="Q4">
-        <v>0.3869783011854858</v>
+        <v>1.909877911111111E-05</v>
       </c>
       <c r="R4">
-        <v>0.3869783011854858</v>
+        <v>0.000171889012</v>
       </c>
       <c r="S4">
-        <v>0.002811300051924489</v>
+        <v>1.299903100083121E-07</v>
       </c>
       <c r="T4">
-        <v>0.002811300051924489</v>
+        <v>1.299903100083121E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>7.24309252336695</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H5">
-        <v>7.24309252336695</v>
+        <v>0.010366</v>
       </c>
       <c r="I5">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533279</v>
       </c>
       <c r="J5">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533278</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.52383677487363</v>
+        <v>0.6300623333333333</v>
       </c>
       <c r="N5">
-        <v>3.52383677487363</v>
+        <v>1.890187</v>
       </c>
       <c r="O5">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="P5">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="Q5">
-        <v>25.52347579765269</v>
+        <v>0.002177075382444444</v>
       </c>
       <c r="R5">
-        <v>25.52347579765269</v>
+        <v>0.019593678442</v>
       </c>
       <c r="S5">
-        <v>0.18542163375936</v>
+        <v>1.481763322299369E-05</v>
       </c>
       <c r="T5">
-        <v>0.18542163375936</v>
+        <v>1.481763322299369E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.304620671476514</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H6">
-        <v>0.304620671476514</v>
+        <v>0.010366</v>
       </c>
       <c r="I6">
-        <v>0.0403593331665846</v>
+        <v>0.0004491504963533279</v>
       </c>
       <c r="J6">
-        <v>0.0403593331665846</v>
+        <v>0.0004491504963533278</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.1677510963009</v>
+        <v>0.068201</v>
       </c>
       <c r="N6">
-        <v>14.1677510963009</v>
+        <v>0.204603</v>
       </c>
       <c r="O6">
-        <v>0.7768495068152008</v>
+        <v>0.00357103561865557</v>
       </c>
       <c r="P6">
-        <v>0.7768495068152008</v>
+        <v>0.00357103561865557</v>
       </c>
       <c r="Q6">
-        <v>4.315789852267298</v>
+        <v>0.0002356571886666667</v>
       </c>
       <c r="R6">
-        <v>4.315789852267298</v>
+        <v>0.002120914698</v>
       </c>
       <c r="S6">
-        <v>0.03135312806585162</v>
+        <v>1.603932420614563E-06</v>
       </c>
       <c r="T6">
-        <v>0.03135312806585162</v>
+        <v>1.603932420614563E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.304620671476514</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H7">
-        <v>0.304620671476514</v>
+        <v>0.010366</v>
       </c>
       <c r="I7">
-        <v>0.0403593331665846</v>
+        <v>0.0004491504963533279</v>
       </c>
       <c r="J7">
-        <v>0.0403593331665846</v>
+        <v>0.0004491504963533278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.492431121557833</v>
+        <v>3.783576333333334</v>
       </c>
       <c r="N7">
-        <v>0.492431121557833</v>
+        <v>11.350729</v>
       </c>
       <c r="O7">
-        <v>0.02700110069145261</v>
+        <v>0.1981097909449359</v>
       </c>
       <c r="P7">
-        <v>0.02700110069145261</v>
+        <v>0.1981097909449359</v>
       </c>
       <c r="Q7">
-        <v>0.15000469890488</v>
+        <v>0.01307351742377778</v>
       </c>
       <c r="R7">
-        <v>0.15000469890488</v>
+        <v>0.117661656814</v>
       </c>
       <c r="S7">
-        <v>0.001089746418670834</v>
+        <v>8.898111093537199E-05</v>
       </c>
       <c r="T7">
-        <v>0.001089746418670834</v>
+        <v>8.898111093537199E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.304620671476514</v>
+        <v>7.314644999999999</v>
       </c>
       <c r="H8">
-        <v>0.304620671476514</v>
+        <v>21.943935</v>
       </c>
       <c r="I8">
-        <v>0.0403593331665846</v>
+        <v>0.9508131677788118</v>
       </c>
       <c r="J8">
-        <v>0.0403593331665846</v>
+        <v>0.9508131677788116</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.0534272204775867</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="N8">
-        <v>0.0534272204775867</v>
+        <v>0.102857</v>
       </c>
       <c r="O8">
-        <v>0.002929534094465907</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="P8">
-        <v>0.002929534094465907</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="Q8">
-        <v>0.01627503577700622</v>
+        <v>0.250787480255</v>
       </c>
       <c r="R8">
-        <v>0.01627503577700622</v>
+        <v>2.257087322295</v>
       </c>
       <c r="S8">
-        <v>0.0001182340425414183</v>
+        <v>0.001706912369366333</v>
       </c>
       <c r="T8">
-        <v>0.0001182340425414183</v>
+        <v>0.001706912369366333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,681 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.304620671476514</v>
+        <v>7.314644999999999</v>
       </c>
       <c r="H9">
-        <v>0.304620671476514</v>
+        <v>21.943935</v>
       </c>
       <c r="I9">
-        <v>0.0403593331665846</v>
+        <v>0.9508131677788118</v>
       </c>
       <c r="J9">
-        <v>0.0403593331665846</v>
+        <v>0.9508131677788116</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.52383677487363</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="N9">
-        <v>3.52383677487363</v>
+        <v>43.730186</v>
       </c>
       <c r="O9">
-        <v>0.1932198583988807</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="P9">
-        <v>0.1932198583988807</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="Q9">
-        <v>1.073433524535639</v>
+        <v>106.62359545799</v>
       </c>
       <c r="R9">
-        <v>1.073433524535639</v>
+        <v>959.6123591219099</v>
       </c>
       <c r="S9">
-        <v>0.007798224639520727</v>
+        <v>0.7257026298461985</v>
       </c>
       <c r="T9">
-        <v>0.007798224639520727</v>
+        <v>0.7257026298461985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.314644999999999</v>
+      </c>
+      <c r="H10">
+        <v>21.943935</v>
+      </c>
+      <c r="I10">
+        <v>0.9508131677788118</v>
+      </c>
+      <c r="J10">
+        <v>0.9508131677788116</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.005527333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.016582</v>
+      </c>
+      <c r="O10">
+        <v>0.0002894137066834145</v>
+      </c>
+      <c r="P10">
+        <v>0.0002894137066834146</v>
+      </c>
+      <c r="Q10">
+        <v>0.04043048112999999</v>
+      </c>
+      <c r="R10">
+        <v>0.3638743301699999</v>
+      </c>
+      <c r="S10">
+        <v>0.0002751783632502652</v>
+      </c>
+      <c r="T10">
+        <v>0.0002751783632502652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.314644999999999</v>
+      </c>
+      <c r="H11">
+        <v>21.943935</v>
+      </c>
+      <c r="I11">
+        <v>0.9508131677788118</v>
+      </c>
+      <c r="J11">
+        <v>0.9508131677788116</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6300623333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.890187</v>
+      </c>
+      <c r="O11">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="P11">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="Q11">
+        <v>4.608682296204999</v>
+      </c>
+      <c r="R11">
+        <v>41.47814066584499</v>
+      </c>
+      <c r="S11">
+        <v>0.03136766161481903</v>
+      </c>
+      <c r="T11">
+        <v>0.03136766161481902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.314644999999999</v>
+      </c>
+      <c r="H12">
+        <v>21.943935</v>
+      </c>
+      <c r="I12">
+        <v>0.9508131677788118</v>
+      </c>
+      <c r="J12">
+        <v>0.9508131677788116</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.068201</v>
+      </c>
+      <c r="N12">
+        <v>0.204603</v>
+      </c>
+      <c r="O12">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="P12">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="Q12">
+        <v>0.4988661036449999</v>
+      </c>
+      <c r="R12">
+        <v>4.489794932804998</v>
+      </c>
+      <c r="S12">
+        <v>0.003395387688824871</v>
+      </c>
+      <c r="T12">
+        <v>0.003395387688824871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.314644999999999</v>
+      </c>
+      <c r="H13">
+        <v>21.943935</v>
+      </c>
+      <c r="I13">
+        <v>0.9508131677788118</v>
+      </c>
+      <c r="J13">
+        <v>0.9508131677788116</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="N13">
+        <v>11.350729</v>
+      </c>
+      <c r="O13">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="P13">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="Q13">
+        <v>27.675517708735</v>
+      </c>
+      <c r="R13">
+        <v>249.079659378615</v>
+      </c>
+      <c r="S13">
+        <v>0.1883653978963527</v>
+      </c>
+      <c r="T13">
+        <v>0.1883653978963527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.374941</v>
+      </c>
+      <c r="H14">
+        <v>1.124823</v>
+      </c>
+      <c r="I14">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="J14">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03428566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.102857</v>
+      </c>
+      <c r="O14">
+        <v>0.001795213220862138</v>
+      </c>
+      <c r="P14">
+        <v>0.001795213220862138</v>
+      </c>
+      <c r="Q14">
+        <v>0.01285510214566667</v>
+      </c>
+      <c r="R14">
+        <v>0.115695919311</v>
+      </c>
+      <c r="S14">
+        <v>8.749453058659475E-05</v>
+      </c>
+      <c r="T14">
+        <v>8.749453058659476E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.374941</v>
+      </c>
+      <c r="H15">
+        <v>1.124823</v>
+      </c>
+      <c r="I15">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="J15">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.57672866666667</v>
+      </c>
+      <c r="N15">
+        <v>43.730186</v>
+      </c>
+      <c r="O15">
+        <v>0.7632441939582174</v>
+      </c>
+      <c r="P15">
+        <v>0.7632441939582175</v>
+      </c>
+      <c r="Q15">
+        <v>5.465413223008667</v>
+      </c>
+      <c r="R15">
+        <v>49.18871900707801</v>
+      </c>
+      <c r="S15">
+        <v>0.03719875260346382</v>
+      </c>
+      <c r="T15">
+        <v>0.03719875260346382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.374941</v>
+      </c>
+      <c r="H16">
+        <v>1.124823</v>
+      </c>
+      <c r="I16">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="J16">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.005527333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.016582</v>
+      </c>
+      <c r="O16">
+        <v>0.0002894137066834145</v>
+      </c>
+      <c r="P16">
+        <v>0.0002894137066834146</v>
+      </c>
+      <c r="Q16">
+        <v>0.002072423887333333</v>
+      </c>
+      <c r="R16">
+        <v>0.018651814986</v>
+      </c>
+      <c r="S16">
+        <v>1.4105353123141E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.4105353123141E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.374941</v>
+      </c>
+      <c r="H17">
+        <v>1.124823</v>
+      </c>
+      <c r="I17">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="J17">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6300623333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.890187</v>
+      </c>
+      <c r="O17">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="P17">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="Q17">
+        <v>0.2362362013223333</v>
+      </c>
+      <c r="R17">
+        <v>2.126125811901</v>
+      </c>
+      <c r="S17">
+        <v>0.001607873302603457</v>
+      </c>
+      <c r="T17">
+        <v>0.001607873302603457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.374941</v>
+      </c>
+      <c r="H18">
+        <v>1.124823</v>
+      </c>
+      <c r="I18">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="J18">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.068201</v>
+      </c>
+      <c r="N18">
+        <v>0.204603</v>
+      </c>
+      <c r="O18">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="P18">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="Q18">
+        <v>0.025571351141</v>
+      </c>
+      <c r="R18">
+        <v>0.230142160269</v>
+      </c>
+      <c r="S18">
+        <v>0.0001740439974100843</v>
+      </c>
+      <c r="T18">
+        <v>0.0001740439974100843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.374941</v>
+      </c>
+      <c r="H19">
+        <v>1.124823</v>
+      </c>
+      <c r="I19">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="J19">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="N19">
+        <v>11.350729</v>
+      </c>
+      <c r="O19">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="P19">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="Q19">
+        <v>1.418617893996334</v>
+      </c>
+      <c r="R19">
+        <v>12.767561045967</v>
+      </c>
+      <c r="S19">
+        <v>0.00965541193764788</v>
+      </c>
+      <c r="T19">
+        <v>0.009655411937647882</v>
       </c>
     </row>
   </sheetData>
